--- a/extracted_data.xlsx
+++ b/extracted_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C850"/>
+  <dimension ref="A1:C926"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14865,6 +14865,1296 @@
         </is>
       </c>
     </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>6400.00 + ЭПИ</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>Рига, Латвия</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>Алматы, Казахстан</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>Нет информации</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>Южная Корея (Пусан)</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>Казахстан (Алматы)</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>Предложение $5670 за контейнер</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>Shanghai, Китай</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>Altyntau Station, Казахстан</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>Предварительная стоимость авиаперевозки 1020 кг генерального груза до а/п г. Москва (VKO) составит KZT 794950</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>ALA (Алматы)</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>MOW (Москва)</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>В зависимости от веса груза и маршрута, примерные цены указаны в письме</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>SZX (Шэньчжэнь), CAN (Гуанчжоу), PVG (Шанхай), XIY (Сиань)</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>ALA (Алматы), TAS (Душанбе)</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>Everwest</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>3980 USD за перевозку от Tashkent до Qingdao</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>Angren, Узбекистан</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>Qingdao, Китай</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>г. Атырау, Казахстан</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>г. Южно-Сахалинск (либо Владивосток)</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>Нет информации</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>Нет информации</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>Нет информации</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>Аса, Казахстан</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>Taichung, Taiwan; Busan, S Korea; Nagyota, Japan; Mizushima, Japan</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>1250е + Ех1 отправителя + гарант</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>Транзит РБ РФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>1450 евро с ДАП</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>РБ РФ (Республика Беларусь - Российская Федерация)</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>Нет информации</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>Китай</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>Казахстан</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>Нет информации о конкретном месте отправления</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>Нет информации о конкретном месте назначения</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>Аса, Казахстанская ЖД</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>Порт Находка</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>Не указана</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>Станция Аса (Тараз), Казахстан</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>Станция Находка (Владивосток), Россия</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>РФ г. Екатеринбург, ул Самолетная 53</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>Республика Казахстан, Павлодарская область, г. Аксу, Аксуский завод ферросплавов – филиал Акционерного общества «Транснациональная компания «Казхром»</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Аса, Казахстанская ЖД</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>Порт Находка</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>Аса, Казахстан</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>Taichung, Taiwan; Busan, S Korea; Nagyota, Japan; Mizushima, Japan</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>$1840 за каждый контейнер</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>Не указана</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>г. Тула, склад АО «КМЗ»</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>Акционерное общество «Казахстанский электролизный завод», 140001, Республика Казахстан, Павлодарская область, г. Павлодар, промышленная зона «Восточная», строение 60/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>Нет информации</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>Китай</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>Не указана</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>SOMTP Centre – Agence d’Orléans, 287, route de Saint-Mesmin, 45750 Saint-Pryvé-Saint-Mesmin, France</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>АО «Евроазиатская энергетическая корпорация», 140102, РК, Павлодарская обл., г. Аксу</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>196006 г. Санкт-Петербург, ул. Заставская, 22 к2 Лит.А, 7 эт.</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>Аса, Казахстан</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>Taichung, Taiwan; Busan, S Korea; Nagyota, Japan; Mizushima, Japan</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>Джебель Али</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>Общие затраты - 3500$ Джебель-Али – Новороссийск, 550$ портовая обработка в Новороссийске, 700$ услуги СВХ в Новороссийске, автотранспорт Новороссийск-Алматы 3000$, 220$ профит</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>Джебель-Али</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>Новороссийск, Алматы</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>Рига</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>Алматы</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>Нава-Шева, Индия</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>Рига, Латвия / Алматы, Казахстан (через РФ)</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>654063, Кемеровская область-Кузбасс, г.Новокузнецк, ул.Рудокопровая (Центральный р-н), 42</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>111507, Республика Казахстан, Костанайская область, пос. Качары</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>654063, Кемеровская область-Кузбасс, г.Новокузнецк, ул.Рудокопровая (Центральный р-н), 42</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>КАЧАРЫ РУДА АО,111507, Республика Казахстан, Костанайская область, пос. Качары</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>Алматы-1 (указано в железнодорожных накладных), но доставка до станции Алтынтау, Акмолинская область</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>Различные цены обсуждались, последняя цена была $5670 за контейнер</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>Shanghai, Китай</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>Altyntau, Akmola region, Казахстан</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>$5670 за контейнер</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>Shanghai, Китай</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>Aksu, Казахстан</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>$5670</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>Shanghai, Китай</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>Altyntau Station, Казахстан</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>Shanghai, Китай</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>Almaty, Казахстан</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>Нет информации</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>Kazakhstan, Almaty</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>Нет информации</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>Цена не указана</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>Shanghai, China</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>Altyntau, Kazakhstan</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>Нет информации</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>ALTYNTAU</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>Различные цены в зависимости от маршрута и типа контейнера</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>Altyntau Station</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>$5670</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>Aksu</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>Ожидается корректировка тарифов, поэтому стоимость не указана</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>Алматы, Казахстан</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>Шереметьево, Россия</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>6400</v>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>Рига, Латвия</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>Алматы, Казахстан</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>7 036,61 Евро (расходы)</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>СВХ клиента ПРК</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>Не указана</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>Almaty, Kazakhstan</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>Аса, Казахстанская ЖД</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>Порт Находка</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>Указаны дополнительные расходы за изменение агента</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>Индия</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>Казахстан</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>Нет информации о цене.</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>Нет информации о месте отправления.</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>Нет информации о месте назначения.</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>Не указана</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>Kazakhstan, Almaty</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>Rosemount</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>Аса, Казахстан</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>Taichung, Taiwan; Busan, S Korea; Nagyota, Japan; Mizushima, Japan</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>Екатеринбург, ул. Старых Большевиков 2А кор.6</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>Республика Казахстан, Павлодарская область, г. Аксу</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>г. Магнитогорск, ул. Пушкина 9</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>КАЧАРЫ РУДА АО, 111507, Республика Казахстан, Костанайская область, пос. Качары</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>Нет информации</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>Нет информации</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>Нет информации</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>Нет информации о месте отправления</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>Нет информации о месте назначения</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>Нет информации</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>DAP Altintau Rail Station</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>Нет информации</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>Shanghai, Китай</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>Нет явного указания</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>DAP Altintau Rail Station</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>Shanghai или Qingdao</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>ADVANCED MINERAL PROCESSING SL, PI AIMAYR. CALLE DEL COBRE 10, 28330 SAN MARTIN DE LA VEGA</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>Донской горно-обогатительный комбинат - филиал АО «ТНК «Казхром», Республика Казахстан, Актюбинская область, район Хромтау, пос. Окраина 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>$5685 за одну перевозку</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>Altyntau</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>Нет информации о цене</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>Нет явного указания</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>5910 USD</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>Altyntau</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>Цена для проекта, близкая к $5685</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>Нет информации</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>Нет информации</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>Нет информации</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>Almaty, Kazakhstan</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>Нет информации</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>5910 долларов</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>Altyntau</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>$5870 per 40' SOC container</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>ALTINTAU</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>Нет информации</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>Китай</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>Казахстан, Алматы</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>Стоимость доставки не указана</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>Китай, Zhejiang Province</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>Казахстан, Almaty</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>Ставка 3580 $</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>Yongkang City, Zhejiang Province, Китай</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>Almaty, Казахстан</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>5910$</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>Altyntau</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - Гуанчжоу (Guangzhou) - Алматы (Almaty) 40HQ COC 4788USD - Шанхай (Shanghai) - Алматы (Almaty) 40HQ COC 4988USD - Циндао (Qingdao) - Алматы (Almaty) 40HQ COC 4888USD - Шанхай (Shanghai) - Алматы (Almaty) LTL USD85/CBM</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>Гуанчжоу (Guangzhou), Шанхай (Shanghai), Циндао (Qingdao)</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>Алматы (Almaty)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
